--- a/Assets/Editor/Excel/LootTable.xlsx
+++ b/Assets/Editor/Excel/LootTable.xlsx
@@ -15,27 +15,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>item id</t>
+  </si>
+  <si>
+    <t>random weight(range:0-100)</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>sub_type</t>
+  </si>
+  <si>
+    <t>rarity</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>sprite</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>item id</t>
-  </si>
-  <si>
-    <t>random weight(range:0-100)</t>
+    <t>eItemType</t>
+  </si>
+  <si>
+    <t>eItemSubType</t>
+  </si>
+  <si>
+    <t>eQuality</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>Loot</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Shield</t>
   </si>
   <si>
     <t>HeroEditor.Knights.Shield.CrusaderShield</t>
@@ -48,96 +141,6 @@
   </si>
   <si>
     <t>HeroEditor.Vikings.MeleeWeapon1H.VikingAxe1</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>sub_type</t>
-  </si>
-  <si>
-    <t>rarity</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>stack</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>sprite</t>
-  </si>
-  <si>
-    <t>eItemType</t>
-  </si>
-  <si>
-    <t>eItemSubType</t>
-  </si>
-  <si>
-    <t>eQuality</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Legacy</t>
-  </si>
-  <si>
-    <t>Loot</t>
-  </si>
-  <si>
-    <t>Axe</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Supply</t>
-  </si>
-  <si>
-    <t>Rare</t>
-  </si>
-  <si>
-    <t>Weapon</t>
-  </si>
-  <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>Legendary</t>
-  </si>
-  <si>
-    <t>Helmet</t>
-  </si>
-  <si>
-    <t>Shield</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1120,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1143,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1154,18 +1157,18 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="B4" s="2">
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1175,8 +1178,8 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+      <c r="B5" s="2">
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1186,8 +1189,8 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+      <c r="B6" s="2">
+        <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1197,8 +1200,8 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
+      <c r="B7" s="2">
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1216,7 +1219,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1239,37 +1242,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1277,16 +1280,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1301,13 +1304,13 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1315,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1332,13 +1335,13 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1352,13 +1355,13 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1372,13 +1375,13 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1392,11 +1395,11 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1410,11 +1413,11 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1428,11 +1431,11 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1446,7 +1449,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1462,7 +1465,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1479,14 +1482,14 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1509,14 +1512,14 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1539,14 +1542,14 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1569,14 +1572,14 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
